--- a/data/trans_orig/LAWTONB_2R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>245168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231104</v>
+        <v>232148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>256720</v>
+        <v>257643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.837943916971715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7898751413932968</v>
+        <v>0.7934430273834298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8774256768290002</v>
+        <v>0.8805802250485357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -765,19 +765,19 @@
         <v>273452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>259744</v>
+        <v>259994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>286966</v>
+        <v>287995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7973887287397335</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7574171574084806</v>
+        <v>0.758147241165363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8367965622267747</v>
+        <v>0.8397960575249614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>551</v>
@@ -786,19 +786,19 @@
         <v>518620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>501520</v>
+        <v>500163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>537382</v>
+        <v>538779</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8160597613976096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7891531784301329</v>
+        <v>0.7870171740712887</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.845582053199169</v>
+        <v>0.8477804049078858</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>28681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19640</v>
+        <v>19316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40265</v>
+        <v>39735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09802595475337918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06712527436933255</v>
+        <v>0.06601971852786781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1376196850372586</v>
+        <v>0.1358088617551511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>35465</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25605</v>
+        <v>26136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45817</v>
+        <v>47171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1034153836897991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07466469255743473</v>
+        <v>0.07621293231453251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1336038690440607</v>
+        <v>0.1375511492749324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -857,19 +857,19 @@
         <v>64145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50622</v>
+        <v>49991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79537</v>
+        <v>78768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1009341671533697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07965433551815178</v>
+        <v>0.07866256435542369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1251530639514662</v>
+        <v>0.1239425532181287</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6300</v>
+        <v>6715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20982</v>
+        <v>22187</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04226199554500536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0215337135538096</v>
+        <v>0.02295241393439947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07171264503564642</v>
+        <v>0.07583179448505574</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -907,19 +907,19 @@
         <v>18018</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11141</v>
+        <v>10879</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26773</v>
+        <v>27122</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05254191602445367</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03248679917486045</v>
+        <v>0.03172361321505675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07807137195667352</v>
+        <v>0.07908798974754747</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -928,19 +928,19 @@
         <v>30384</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20634</v>
+        <v>20118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42477</v>
+        <v>41702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04780918664111947</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03246856109276441</v>
+        <v>0.03165560403402288</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06683919706989264</v>
+        <v>0.06561923413693342</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4618</v>
+        <v>6208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003182569865404814</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0157840796377742</v>
+        <v>0.02121668927132265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -978,19 +978,19 @@
         <v>10290</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5552</v>
+        <v>5588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17408</v>
+        <v>17624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03000475384340346</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01618866343793563</v>
+        <v>0.01629548726912641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05076124896174384</v>
+        <v>0.05139279824497157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -999,19 +999,19 @@
         <v>11221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6381</v>
+        <v>6247</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18077</v>
+        <v>19562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0176562012946115</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01004045337078038</v>
+        <v>0.009829767119923036</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02844460603744986</v>
+        <v>0.03078191231678568</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>5438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1792</v>
+        <v>1874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11290</v>
+        <v>11044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01858556286449567</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006123129306635668</v>
+        <v>0.006403981510228831</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03858889645314954</v>
+        <v>0.03774538862147515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1049,19 +1049,19 @@
         <v>5710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2679</v>
+        <v>1963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12194</v>
+        <v>12218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01664921770261025</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007812564740226971</v>
+        <v>0.00572292980115473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03555721679448526</v>
+        <v>0.03562787438033478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1070,19 +1070,19 @@
         <v>11147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6259</v>
+        <v>5854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18944</v>
+        <v>19000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01754068351328975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009848048505846821</v>
+        <v>0.009210728570203925</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02980827492050113</v>
+        <v>0.02989682055595563</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>125089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110754</v>
+        <v>110082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138195</v>
+        <v>138776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5959951340042455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5276927440668162</v>
+        <v>0.5244899171702845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6584361604418627</v>
+        <v>0.6612048148499173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -1195,19 +1195,19 @@
         <v>170646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152772</v>
+        <v>152731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191560</v>
+        <v>188529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5110573913252452</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4575277312467578</v>
+        <v>0.4574038940967168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5736915618356914</v>
+        <v>0.5646142403010118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>277</v>
@@ -1216,19 +1216,19 @@
         <v>295735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>272959</v>
+        <v>270024</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>318459</v>
+        <v>317878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5438401862822514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5019557703052648</v>
+        <v>0.4965590599455815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5856280817549711</v>
+        <v>0.5845591679799568</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>38875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29261</v>
+        <v>28347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49773</v>
+        <v>50373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1852206477896849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1394153215041277</v>
+        <v>0.1350620433078097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2371454134808234</v>
+        <v>0.2400072472355781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1266,19 +1266,19 @@
         <v>71435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56949</v>
+        <v>56327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88690</v>
+        <v>89205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2139357813181238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1705516275931704</v>
+        <v>0.1686913752662433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2656117954280644</v>
+        <v>0.2671531225590434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -1287,19 +1287,19 @@
         <v>110310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>93226</v>
+        <v>93309</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130683</v>
+        <v>130672</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2028528127233085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1714368797681829</v>
+        <v>0.1715891567318389</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2403176583869446</v>
+        <v>0.2402976222541803</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>14758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8694</v>
+        <v>8839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23495</v>
+        <v>22385</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07031562675823777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04142216160408041</v>
+        <v>0.04211190137630288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1119442572678027</v>
+        <v>0.1066544454997597</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1337,19 +1337,19 @@
         <v>46133</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33404</v>
+        <v>33126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60863</v>
+        <v>60441</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1381593351110625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1000399125234093</v>
+        <v>0.0992072516813013</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1822741330663773</v>
+        <v>0.1810098916764099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -1358,19 +1358,19 @@
         <v>60891</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46187</v>
+        <v>47458</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76372</v>
+        <v>78870</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1119741986816779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08493549568542015</v>
+        <v>0.08727267982689821</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1404434788617109</v>
+        <v>0.1450382508445878</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>19349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11938</v>
+        <v>12792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28531</v>
+        <v>29416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09219051543663268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05688167317691166</v>
+        <v>0.06094959097202412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1359356466513849</v>
+        <v>0.1401522189366302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1408,19 +1408,19 @@
         <v>15235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8274</v>
+        <v>9070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24236</v>
+        <v>24706</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04562779983447331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02478059815051948</v>
+        <v>0.02716348131301084</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0725838801233166</v>
+        <v>0.07399011634992382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1429,19 +1429,19 @@
         <v>34585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23923</v>
+        <v>24030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47689</v>
+        <v>46872</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06359926823098838</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04399383904059649</v>
+        <v>0.04419056089686235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08769712744721457</v>
+        <v>0.08619504463280701</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>11812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7067</v>
+        <v>7162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19695</v>
+        <v>20127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05627807601119909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03367033766091404</v>
+        <v>0.03412395084585852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09383918828326557</v>
+        <v>0.0958986167291184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1479,19 +1479,19 @@
         <v>30459</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20669</v>
+        <v>21250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42249</v>
+        <v>43419</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09121969241109516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06189991411495548</v>
+        <v>0.06363934770537596</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1265299410606919</v>
+        <v>0.1300314915898892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -1500,19 +1500,19 @@
         <v>42271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31399</v>
+        <v>31365</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56993</v>
+        <v>58215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07773353408177376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05774111067132264</v>
+        <v>0.05767870280735134</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1048066850302515</v>
+        <v>0.10705421072138</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>370257</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>444</v>
@@ -1625,19 +1625,19 @@
         <v>444098</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>828</v>
@@ -1646,19 +1646,19 @@
         <v>814355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>67555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53440</v>
+        <v>52962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84085</v>
+        <v>83890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1344476945344142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.106354897526927</v>
+        <v>0.1054043613720463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1673444697453322</v>
+        <v>0.1669573599176143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -1696,19 +1696,19 @@
         <v>106900</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88215</v>
+        <v>87911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127470</v>
+        <v>126236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1579386664102227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.130333363259295</v>
+        <v>0.1298836146458097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1883310446480567</v>
+        <v>0.1865072891104948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>171</v>
@@ -1717,19 +1717,19 @@
         <v>174455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150035</v>
+        <v>151409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199303</v>
+        <v>199983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1479299029922561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1272227677465345</v>
+        <v>0.1283877278563637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1689999418618041</v>
+        <v>0.1695766046904804</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>27123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17608</v>
+        <v>18647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37864</v>
+        <v>39285</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05398016347910241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03504304266777843</v>
+        <v>0.03711111501704625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07535682882441976</v>
+        <v>0.07818359295251807</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -1767,19 +1767,19 @@
         <v>64151</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47790</v>
+        <v>50584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80164</v>
+        <v>81615</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09477975489245094</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07060731393166932</v>
+        <v>0.07473497500389752</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1184376730029142</v>
+        <v>0.1205820363180387</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -1788,19 +1788,19 @@
         <v>91274</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73561</v>
+        <v>73074</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>111493</v>
+        <v>110447</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07739633371410291</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06237599733316485</v>
+        <v>0.06196349788096284</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09454083314973984</v>
+        <v>0.09365388823610853</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>20280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13457</v>
+        <v>13329</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30835</v>
+        <v>29482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04036171597111994</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02678199731724306</v>
+        <v>0.02652747318222822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06136720379502251</v>
+        <v>0.05867415736501651</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1838,19 +1838,19 @@
         <v>25525</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16297</v>
+        <v>16925</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36753</v>
+        <v>37917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03771210716283247</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02407823626761579</v>
+        <v>0.02500646297350305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05430060645900752</v>
+        <v>0.05602032283088268</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1859,19 +1859,19 @@
         <v>45806</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34320</v>
+        <v>33358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59239</v>
+        <v>59021</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03884102204351562</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02910173099134611</v>
+        <v>0.02828588653725595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05023215507542412</v>
+        <v>0.05004722084603789</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>17250</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10585</v>
+        <v>11062</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25824</v>
+        <v>27075</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03432994887834244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02106539530807635</v>
+        <v>0.02201491763379411</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05139530729541737</v>
+        <v>0.05388336473384227</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1909,19 +1909,19 @@
         <v>36169</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25695</v>
+        <v>25103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49947</v>
+        <v>50238</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05343724201645794</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03796362461719299</v>
+        <v>0.03708819728471081</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07379356181371877</v>
+        <v>0.07422377144523715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -1930,19 +1930,19 @@
         <v>53418</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40067</v>
+        <v>40762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>69144</v>
+        <v>68586</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04529622607262302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03397512493163052</v>
+        <v>0.03456421460058601</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05863097387920072</v>
+        <v>0.05815766229732965</v>
       </c>
     </row>
     <row r="21">
@@ -2272,19 +2272,19 @@
         <v>263345</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>247931</v>
+        <v>247064</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>274238</v>
+        <v>274316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8500856477173704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8003302071285517</v>
+        <v>0.7975317688207801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8852493264544041</v>
+        <v>0.885502995545091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>272</v>
@@ -2293,19 +2293,19 @@
         <v>279432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>262398</v>
+        <v>261901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>294319</v>
+        <v>294317</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7893658889646735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7412456105612039</v>
+        <v>0.7398418096085665</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8314185870512883</v>
+        <v>0.8314135561097836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>511</v>
@@ -2314,19 +2314,19 @@
         <v>542777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>525525</v>
+        <v>518053</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>564769</v>
+        <v>561685</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8177037123589639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7917138413543007</v>
+        <v>0.7804569731616442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8508356996559295</v>
+        <v>0.846189660578499</v>
       </c>
     </row>
     <row r="5">
@@ -2343,19 +2343,19 @@
         <v>16721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9602</v>
+        <v>9860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26088</v>
+        <v>26465</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0539743677060107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03099639914791467</v>
+        <v>0.03182982209818274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08421180365161959</v>
+        <v>0.08543115627644716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -2364,19 +2364,19 @@
         <v>35220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25492</v>
+        <v>24885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48167</v>
+        <v>47496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09949303511758868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07201188258364777</v>
+        <v>0.07029709577575376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1360663060802035</v>
+        <v>0.1341712509246237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -2385,19 +2385,19 @@
         <v>51941</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39356</v>
+        <v>39536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66242</v>
+        <v>67327</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07824953901764005</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05929128858807915</v>
+        <v>0.05956242933328828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09979547561023765</v>
+        <v>0.1014300546374043</v>
       </c>
     </row>
     <row r="6">
@@ -2414,19 +2414,19 @@
         <v>7990</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3855</v>
+        <v>3906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14395</v>
+        <v>15182</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02579161289797901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01244278643217151</v>
+        <v>0.01260758883435728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04646696049636297</v>
+        <v>0.04900693671637495</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -2435,19 +2435,19 @@
         <v>15690</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8713</v>
+        <v>8813</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24446</v>
+        <v>26546</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0443218402946129</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02461394933357404</v>
+        <v>0.02489574487065857</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06905786400309902</v>
+        <v>0.07498865463459817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -2456,19 +2456,19 @@
         <v>23680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15820</v>
+        <v>15259</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34697</v>
+        <v>36349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03567381002887128</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02383356966669993</v>
+        <v>0.02298861606193351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05227095933839833</v>
+        <v>0.05476063235332075</v>
       </c>
     </row>
     <row r="7">
@@ -2485,19 +2485,19 @@
         <v>14568</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7312</v>
+        <v>8199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25178</v>
+        <v>26279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04702613155131901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02360359272935761</v>
+        <v>0.02646798140280475</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08127632665109125</v>
+        <v>0.08482831046489134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2506,19 +2506,19 @@
         <v>12000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6102</v>
+        <v>6141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21400</v>
+        <v>21512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03389882269419272</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01723883700337251</v>
+        <v>0.01734670716418258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06045296514391529</v>
+        <v>0.06076866056609288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -2527,19 +2527,19 @@
         <v>26568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17087</v>
+        <v>17802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38690</v>
+        <v>40024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04002531870928148</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02574152048347335</v>
+        <v>0.02681869350168751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05828716632340904</v>
+        <v>0.06029719853770529</v>
       </c>
     </row>
     <row r="8">
@@ -2556,19 +2556,19 @@
         <v>7163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3037</v>
+        <v>3028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14049</v>
+        <v>14040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02312224012732087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009803610199476924</v>
+        <v>0.009773377186153249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04535124802137072</v>
+        <v>0.04532242120974706</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -2577,19 +2577,19 @@
         <v>11654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5912</v>
+        <v>5919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19565</v>
+        <v>19182</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03292041292893218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01670189778087579</v>
+        <v>0.01671973252287264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05527037676015771</v>
+        <v>0.05418576460242722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -2598,19 +2598,19 @@
         <v>18817</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11613</v>
+        <v>11860</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28187</v>
+        <v>29325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02834761988524327</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0174949717260884</v>
+        <v>0.0178680171901234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0424641071098049</v>
+        <v>0.04417834691018012</v>
       </c>
     </row>
     <row r="9">
@@ -2702,19 +2702,19 @@
         <v>146336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130666</v>
+        <v>129595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163361</v>
+        <v>162988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5856917096693797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5229774580005574</v>
+        <v>0.5186906986424998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6538323964481739</v>
+        <v>0.6523394253625345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -2723,19 +2723,19 @@
         <v>176924</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157834</v>
+        <v>156486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198732</v>
+        <v>197884</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4548422066177902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4057654195466276</v>
+        <v>0.4022989564772878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5109077464729431</v>
+        <v>0.5087258245314984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -2744,19 +2744,19 @@
         <v>323260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>295792</v>
+        <v>295382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>350654</v>
+        <v>348570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5060183687128609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.463020682386434</v>
+        <v>0.4623789966607451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.548901028246409</v>
+        <v>0.5456375239868497</v>
       </c>
     </row>
     <row r="11">
@@ -2773,19 +2773,19 @@
         <v>16836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9490</v>
+        <v>9636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27052</v>
+        <v>26828</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06738321951447221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03798402907966213</v>
+        <v>0.03856757914174496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1082706937830768</v>
+        <v>0.1073775548801126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -2794,19 +2794,19 @@
         <v>56945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44432</v>
+        <v>42970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73172</v>
+        <v>72639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1463955439527092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1142282398426616</v>
+        <v>0.1104677683393916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1881139758278921</v>
+        <v>0.1867418330923544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -2815,19 +2815,19 @@
         <v>73781</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57457</v>
+        <v>58012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90663</v>
+        <v>91481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1154932674544538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08994031266692022</v>
+        <v>0.09080926046868446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.141920800959154</v>
+        <v>0.1432001230719953</v>
       </c>
     </row>
     <row r="12">
@@ -2844,19 +2844,19 @@
         <v>33962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24180</v>
+        <v>23465</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47245</v>
+        <v>47358</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.135928227331064</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09677816607844179</v>
+        <v>0.09391463336618484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.189093170041141</v>
+        <v>0.1895464370071057</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -2865,19 +2865,19 @@
         <v>41354</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30439</v>
+        <v>30462</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54532</v>
+        <v>56430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1063144323562831</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07825450042924217</v>
+        <v>0.07831203147429099</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1401931871274995</v>
+        <v>0.1450714652119278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -2886,19 +2886,19 @@
         <v>75316</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57685</v>
+        <v>57778</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91483</v>
+        <v>92959</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1178965961133901</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09029714458163428</v>
+        <v>0.09044406499422028</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1432032687985319</v>
+        <v>0.1455140761172306</v>
       </c>
     </row>
     <row r="13">
@@ -2915,19 +2915,19 @@
         <v>25947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17411</v>
+        <v>16819</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40503</v>
+        <v>37419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1038518466729087</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06968595949655891</v>
+        <v>0.06731801659127867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1621087385083854</v>
+        <v>0.1497651605954358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -2936,19 +2936,19 @@
         <v>55514</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42982</v>
+        <v>41840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70055</v>
+        <v>70331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1427176454294301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1104992193299561</v>
+        <v>0.1075642149963466</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1801000285452461</v>
+        <v>0.1808085105000763</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -2957,19 +2957,19 @@
         <v>81462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65639</v>
+        <v>65083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100953</v>
+        <v>100016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1275169578400096</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1027492862085797</v>
+        <v>0.1018783974867749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1580276623256131</v>
+        <v>0.1565615932275338</v>
       </c>
     </row>
     <row r="14">
@@ -2986,19 +2986,19 @@
         <v>26770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17197</v>
+        <v>17184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39309</v>
+        <v>39671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1071449968121754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06882888643815867</v>
+        <v>0.06877679748890971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1573310793682057</v>
+        <v>0.158779477510351</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3007,19 +3007,19 @@
         <v>58242</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43481</v>
+        <v>44212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74732</v>
+        <v>73732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1497301716437873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1117823896874477</v>
+        <v>0.1136604762856088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1921242686337674</v>
+        <v>0.189551479916726</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -3028,19 +3028,19 @@
         <v>85012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67659</v>
+        <v>67355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107019</v>
+        <v>106856</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1330748098792856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1059111881681956</v>
+        <v>0.1054342567933747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.167524218015253</v>
+        <v>0.1672675540955215</v>
       </c>
     </row>
     <row r="15">
@@ -3132,19 +3132,19 @@
         <v>409680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>431</v>
@@ -3153,19 +3153,19 @@
         <v>456356</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>428533</v>
+        <v>429223</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>484735</v>
+        <v>484289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6142285195971583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5767795799388813</v>
+        <v>0.5777083653227872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6524237750862577</v>
+        <v>0.6518236816946713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>802</v>
@@ -3174,19 +3174,19 @@
         <v>866037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>826943</v>
+        <v>832845</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>899849</v>
+        <v>901708</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6648463024200488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6348341069451611</v>
+        <v>0.6393652485918484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6908037351608008</v>
+        <v>0.6922310555397599</v>
       </c>
     </row>
     <row r="17">
@@ -3203,19 +3203,19 @@
         <v>33556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23077</v>
+        <v>23281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47156</v>
+        <v>45741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05996077112903619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04123643413392623</v>
+        <v>0.04159997932206658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08426100689027154</v>
+        <v>0.08173251176998743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -3224,19 +3224,19 @@
         <v>92165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74132</v>
+        <v>73932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111688</v>
+        <v>111442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1240484924666495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09977778068538708</v>
+        <v>0.09950862567774942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1503247294543631</v>
+        <v>0.1499944415258842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -3245,19 +3245,19 @@
         <v>125721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106401</v>
+        <v>102540</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147749</v>
+        <v>146729</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0965146900148703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08168300574525486</v>
+        <v>0.07871907914600536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1134251440640732</v>
+        <v>0.1126422713863743</v>
       </c>
     </row>
     <row r="18">
@@ -3274,19 +3274,19 @@
         <v>41952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31026</v>
+        <v>30542</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56071</v>
+        <v>57445</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07496228127889146</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05543911748133393</v>
+        <v>0.05457381554573649</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1001909030320516</v>
+        <v>0.1026475722203105</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -3295,19 +3295,19 @@
         <v>57044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43848</v>
+        <v>44256</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74066</v>
+        <v>72248</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07677759773989917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05901736538916172</v>
+        <v>0.05956581691219077</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09968841798517597</v>
+        <v>0.09724138645018797</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>92</v>
@@ -3316,19 +3316,19 @@
         <v>98996</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>80743</v>
+        <v>81371</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121074</v>
+        <v>122123</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07599768914303173</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06198541245536852</v>
+        <v>0.06246775168451846</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09294708206599304</v>
+        <v>0.09375260601783762</v>
       </c>
     </row>
     <row r="19">
@@ -3345,19 +3345,19 @@
         <v>40516</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28124</v>
+        <v>28027</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54505</v>
+        <v>55453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07239606332318689</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05025363690106929</v>
+        <v>0.05007990532808768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09739391913013373</v>
+        <v>0.09908787604778514</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -3366,19 +3366,19 @@
         <v>67514</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52045</v>
+        <v>52718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83656</v>
+        <v>86074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09087010262814087</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07004969003316622</v>
+        <v>0.07095519315012518</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1125963713940058</v>
+        <v>0.1158506604108734</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -3387,19 +3387,19 @@
         <v>108030</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87954</v>
+        <v>86851</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132133</v>
+        <v>129034</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0829331602920358</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06752101489365342</v>
+        <v>0.06667411546744095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1014372076726658</v>
+        <v>0.09905762415867475</v>
       </c>
     </row>
     <row r="20">
@@ -3416,19 +3416,19 @@
         <v>33933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23478</v>
+        <v>23339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48311</v>
+        <v>48620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06063433478055898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04195228829737516</v>
+        <v>0.04170307752231689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08632491261992964</v>
+        <v>0.08687816744129551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -3437,19 +3437,19 @@
         <v>69896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53315</v>
+        <v>52794</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87250</v>
+        <v>86327</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09407528756815224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07175944630351989</v>
+        <v>0.07105818324607988</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1174335845668217</v>
+        <v>0.1161907278687964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -3458,19 +3458,19 @@
         <v>103829</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84460</v>
+        <v>84710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>126029</v>
+        <v>125360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07970815813001332</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06483894355113701</v>
+        <v>0.06503060579909282</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0967506722458425</v>
+        <v>0.09623744534691724</v>
       </c>
     </row>
     <row r="21">
@@ -3800,19 +3800,19 @@
         <v>300972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>288573</v>
+        <v>288609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310620</v>
+        <v>310626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9002247907666443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8631389895295546</v>
+        <v>0.8632451110520936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9290809507458407</v>
+        <v>0.9291013107213493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>276</v>
@@ -3821,19 +3821,19 @@
         <v>293570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>275974</v>
+        <v>277983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309744</v>
+        <v>309335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.777128291662177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7305492557540032</v>
+        <v>0.7358673961617942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8199457518685173</v>
+        <v>0.8188608562701672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>568</v>
@@ -3842,19 +3842,19 @@
         <v>594542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>573624</v>
+        <v>573485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>613957</v>
+        <v>614153</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.834922582755031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8055477282698976</v>
+        <v>0.8053529691224408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8621872856437894</v>
+        <v>0.862463211420807</v>
       </c>
     </row>
     <row r="5">
@@ -3871,19 +3871,19 @@
         <v>11994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6731</v>
+        <v>6636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19779</v>
+        <v>19931</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03587466213303959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02013337790013015</v>
+        <v>0.01984877640890218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05916009629475408</v>
+        <v>0.0596135235248586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -3892,19 +3892,19 @@
         <v>48037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34849</v>
+        <v>35820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62129</v>
+        <v>63206</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1271610080596521</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09225013194274156</v>
+        <v>0.09482281623124421</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1644668369776865</v>
+        <v>0.1673173023078288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -3913,19 +3913,19 @@
         <v>60031</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46259</v>
+        <v>46945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77191</v>
+        <v>77048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08430170915458565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06496254268202445</v>
+        <v>0.06592523112968003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1084009131895989</v>
+        <v>0.1081997030254385</v>
       </c>
     </row>
     <row r="6">
@@ -3942,19 +3942,19 @@
         <v>8467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3818</v>
+        <v>3989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16113</v>
+        <v>16341</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02532532310665036</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01142056944690447</v>
+        <v>0.01193119060058402</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04819382116932514</v>
+        <v>0.04887714276909332</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -3963,19 +3963,19 @@
         <v>22394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14361</v>
+        <v>14246</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34327</v>
+        <v>32895</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0592813230180595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03801668909965757</v>
+        <v>0.03771080642463917</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0908695710553923</v>
+        <v>0.08707813605299158</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -3984,19 +3984,19 @@
         <v>30861</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21160</v>
+        <v>21007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43038</v>
+        <v>43895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04333884733836177</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02971575753365089</v>
+        <v>0.02950057888280052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06043891373955911</v>
+        <v>0.06164213251319058</v>
       </c>
     </row>
     <row r="7">
@@ -4013,19 +4013,19 @@
         <v>8861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15972</v>
+        <v>16259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02650416038485874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01181581300612146</v>
+        <v>0.01182035953646974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04777412382053526</v>
+        <v>0.04863146671520717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4034,19 +4034,19 @@
         <v>10748</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4673</v>
+        <v>5371</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18197</v>
+        <v>19591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02845176287977801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01236971081175259</v>
+        <v>0.0142166517932661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0481696293925856</v>
+        <v>0.05186158314912125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4055,19 +4055,19 @@
         <v>19609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12269</v>
+        <v>12236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30174</v>
+        <v>30291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02753735583860776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01722958836147409</v>
+        <v>0.01718258112440566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04237323975730057</v>
+        <v>0.04253805498369859</v>
       </c>
     </row>
     <row r="8">
@@ -4084,19 +4084,19 @@
         <v>4036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1060</v>
+        <v>1036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9249</v>
+        <v>9187</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01207106360880698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003170180205737248</v>
+        <v>0.003099665485053894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02766310524903528</v>
+        <v>0.02747791631649666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4105,19 +4105,19 @@
         <v>3014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8504</v>
+        <v>8470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007977614380333415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002515957171073983</v>
+        <v>0.002521783291508004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02251215455330296</v>
+        <v>0.02242229177564884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -4126,19 +4126,19 @@
         <v>7049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3001</v>
+        <v>3018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14253</v>
+        <v>13908</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009899504913413846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004214817547292685</v>
+        <v>0.00423860711741351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02001631323530189</v>
+        <v>0.01953131100437816</v>
       </c>
     </row>
     <row r="9">
@@ -4230,19 +4230,19 @@
         <v>166013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151681</v>
+        <v>151419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179994</v>
+        <v>180272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6459683470924242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5902031714711405</v>
+        <v>0.5891851069289964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7003729241512682</v>
+        <v>0.7014525662931602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -4251,19 +4251,19 @@
         <v>206856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182796</v>
+        <v>185816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226306</v>
+        <v>229858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5169224743841191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4567974684095632</v>
+        <v>0.4643442026994799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5655267676430099</v>
+        <v>0.5744013880712844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -4272,19 +4272,19 @@
         <v>372869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343555</v>
+        <v>346862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399185</v>
+        <v>398986</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5673883853423846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5227820321115952</v>
+        <v>0.5278139142911777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.607432804863089</v>
+        <v>0.6071305056932874</v>
       </c>
     </row>
     <row r="11">
@@ -4301,19 +4301,19 @@
         <v>23263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16366</v>
+        <v>15964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32918</v>
+        <v>32812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09051975567488318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06368095021573104</v>
+        <v>0.06211707626524557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1280860738054117</v>
+        <v>0.1276735551260988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4322,19 +4322,19 @@
         <v>46122</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30591</v>
+        <v>32984</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60946</v>
+        <v>62040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1152557487096889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07644480068800398</v>
+        <v>0.08242496468532265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1523004353051805</v>
+        <v>0.1550349310526793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -4343,19 +4343,19 @@
         <v>69385</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55145</v>
+        <v>53435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89200</v>
+        <v>87001</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.105582255123571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08391273065010824</v>
+        <v>0.08131156822244971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.135733519333776</v>
+        <v>0.1323886564924648</v>
       </c>
     </row>
     <row r="12">
@@ -4372,19 +4372,19 @@
         <v>31741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22310</v>
+        <v>22042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43152</v>
+        <v>42386</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1235062430961057</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08680856913388922</v>
+        <v>0.08576786722129803</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1679061310883168</v>
+        <v>0.1649278239781683</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -4393,19 +4393,19 @@
         <v>55897</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40138</v>
+        <v>41811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72490</v>
+        <v>73238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1396826487363216</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1003019877056711</v>
+        <v>0.1044831080489034</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.181148029795765</v>
+        <v>0.1830174409799224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -4414,19 +4414,19 @@
         <v>87638</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69991</v>
+        <v>69952</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108123</v>
+        <v>108860</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1333565491135215</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1065040579399779</v>
+        <v>0.1064441339453149</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1645290366858764</v>
+        <v>0.1656509131536805</v>
       </c>
     </row>
     <row r="13">
@@ -4443,19 +4443,19 @@
         <v>23151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15154</v>
+        <v>15992</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33234</v>
+        <v>32034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09008129802804871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0589663779557457</v>
+        <v>0.06222447930456788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1293143348109195</v>
+        <v>0.12464764266917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -4464,19 +4464,19 @@
         <v>53378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39192</v>
+        <v>38568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71295</v>
+        <v>69178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1333897420159722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09793912758580564</v>
+        <v>0.0963804553224155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1781632531749949</v>
+        <v>0.1728729819008774</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -4485,19 +4485,19 @@
         <v>76529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59627</v>
+        <v>60927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95231</v>
+        <v>95037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1164531284523917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09073374779951107</v>
+        <v>0.0927112012377848</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1449107859105092</v>
+        <v>0.144615548525312</v>
       </c>
     </row>
     <row r="14">
@@ -4514,19 +4514,19 @@
         <v>12830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7509</v>
+        <v>7226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20147</v>
+        <v>20601</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0499243561085382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02921646692347738</v>
+        <v>0.02811703222088542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07839256283363011</v>
+        <v>0.0801583512558571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -4535,19 +4535,19 @@
         <v>37916</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26055</v>
+        <v>26563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53876</v>
+        <v>54438</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09474938615389818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06510978066209386</v>
+        <v>0.06637935223202197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1346336814474035</v>
+        <v>0.1360385690110618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -4556,19 +4556,19 @@
         <v>50746</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38848</v>
+        <v>36992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68848</v>
+        <v>66749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07721968196813135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05911467274953383</v>
+        <v>0.05628970608299443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1047643876416127</v>
+        <v>0.1015704211000875</v>
       </c>
     </row>
     <row r="15">
@@ -4660,19 +4660,19 @@
         <v>466985</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>432</v>
@@ -4681,19 +4681,19 @@
         <v>500426</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>470867</v>
+        <v>472476</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>528313</v>
+        <v>529819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6432779869014048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.605280956554302</v>
+        <v>0.6073494610525761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6791254886355941</v>
+        <v>0.6810612710993202</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>920</v>
@@ -4702,19 +4702,19 @@
         <v>967411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>932695</v>
+        <v>936095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1002118</v>
+        <v>1004925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7065212751459448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6811674831522579</v>
+        <v>0.6836510603071196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7318686126023086</v>
+        <v>0.7339185313845019</v>
       </c>
     </row>
     <row r="17">
@@ -4731,19 +4731,19 @@
         <v>35257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26014</v>
+        <v>25348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47288</v>
+        <v>46607</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05962405304732495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04399273625768781</v>
+        <v>0.04286697316210787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07996908878298718</v>
+        <v>0.07881818247878374</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -4752,19 +4752,19 @@
         <v>94158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74812</v>
+        <v>78382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116827</v>
+        <v>116495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.121036922868483</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09616814562718476</v>
+        <v>0.1007569652228503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1501771363209693</v>
+        <v>0.1497494802117567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -4773,19 +4773,19 @@
         <v>129416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108529</v>
+        <v>106710</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153888</v>
+        <v>151667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09451516954760762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07926085390748742</v>
+        <v>0.07793247254741499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1123880572898212</v>
+        <v>0.1107655899881556</v>
       </c>
     </row>
     <row r="18">
@@ -4802,19 +4802,19 @@
         <v>40208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29533</v>
+        <v>30141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52318</v>
+        <v>53003</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06799588871503862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04994400633420337</v>
+        <v>0.05097120248883598</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08847540216575692</v>
+        <v>0.08963440445127688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -4823,19 +4823,19 @@
         <v>78291</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61603</v>
+        <v>61714</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98213</v>
+        <v>97479</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1006398985608169</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07918770848537482</v>
+        <v>0.07933061330081688</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1262493794647125</v>
+        <v>0.1253051454879787</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>108</v>
@@ -4844,19 +4844,19 @@
         <v>118499</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97497</v>
+        <v>97756</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138900</v>
+        <v>139897</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08654226106145875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07120453597827898</v>
+        <v>0.07139307569905416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1014417626123607</v>
+        <v>0.1021701479297547</v>
       </c>
     </row>
     <row r="19">
@@ -4873,19 +4873,19 @@
         <v>32012</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22506</v>
+        <v>22647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43472</v>
+        <v>42873</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05413552117561758</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03806015904188903</v>
+        <v>0.03829776834356612</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07351647542297472</v>
+        <v>0.07250314953400211</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -4894,19 +4894,19 @@
         <v>64126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49138</v>
+        <v>47955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83381</v>
+        <v>82491</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08243203371034717</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06316525185306404</v>
+        <v>0.06164420548584586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1071828757077124</v>
+        <v>0.1060391586109921</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -4915,19 +4915,19 @@
         <v>96138</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75992</v>
+        <v>78898</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>117502</v>
+        <v>117185</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07021190578809525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05549865224012165</v>
+        <v>0.05762110016324719</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08581405952924602</v>
+        <v>0.08558270390368362</v>
       </c>
     </row>
     <row r="20">
@@ -4944,19 +4944,19 @@
         <v>16866</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10101</v>
+        <v>10520</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25133</v>
+        <v>26571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02852254319645768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01708254490182511</v>
+        <v>0.01779030025472673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0425033884839567</v>
+        <v>0.04493518781543902</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -4965,19 +4965,19 @@
         <v>40929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28169</v>
+        <v>28101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55175</v>
+        <v>57102</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05261315795894816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03621010448539244</v>
+        <v>0.03612259532133128</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07092532259679031</v>
+        <v>0.07340285516643441</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -4986,19 +4986,19 @@
         <v>57796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43462</v>
+        <v>42305</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76875</v>
+        <v>75338</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0422093884568936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03174129145482926</v>
+        <v>0.03089661831941043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05614385302039265</v>
+        <v>0.05502108552630319</v>
       </c>
     </row>
     <row r="21">
@@ -5328,19 +5328,19 @@
         <v>347050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>336013</v>
+        <v>334766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>358313</v>
+        <v>357801</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8608661075698788</v>
+        <v>0.8608661075698787</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8334886549808064</v>
+        <v>0.8303972847559656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8888042817467131</v>
+        <v>0.8875361448568468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>659</v>
@@ -5349,19 +5349,19 @@
         <v>347823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>335664</v>
+        <v>334816</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>359837</v>
+        <v>359047</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7953512718501968</v>
+        <v>0.7953512718501967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7675481124650514</v>
+        <v>0.7656080684952046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8228221690981788</v>
+        <v>0.821015535508698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1139</v>
@@ -5370,19 +5370,19 @@
         <v>694873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>677166</v>
+        <v>675824</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>710445</v>
+        <v>710104</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8267765010630383</v>
+        <v>0.8267765010630387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8057092363959655</v>
+        <v>0.8041121337775508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8453053023837626</v>
+        <v>0.8448996620291084</v>
       </c>
     </row>
     <row r="5">
@@ -5399,19 +5399,19 @@
         <v>27969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20720</v>
+        <v>20800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38208</v>
+        <v>39065</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06937695003073097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05139757384922009</v>
+        <v>0.05159544660878164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09477611395770873</v>
+        <v>0.09690084376695984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -5420,19 +5420,19 @@
         <v>45567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35641</v>
+        <v>37061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54472</v>
+        <v>56009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1041952794746448</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08149792251658629</v>
+        <v>0.08474610465629989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1245582431358271</v>
+        <v>0.1280722197040308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -5441,19 +5441,19 @@
         <v>73535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62069</v>
+        <v>61552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86995</v>
+        <v>86694</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08749411596620117</v>
+        <v>0.08749411596620121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07385102933499434</v>
+        <v>0.07323628899608341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1035092642727226</v>
+        <v>0.1031511701129092</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         <v>8999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20609</v>
+        <v>20695</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03439627894913344</v>
+        <v>0.03439627894913345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0223214943040493</v>
+        <v>0.02232120151746384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05111998744928351</v>
+        <v>0.05133547026442946</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -5491,19 +5491,19 @@
         <v>19300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14066</v>
+        <v>13603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26498</v>
+        <v>26397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04413271876873404</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03216475097595985</v>
+        <v>0.03110590633983051</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06059197349037029</v>
+        <v>0.06036160606418529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -5512,19 +5512,19 @@
         <v>33167</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25278</v>
+        <v>25584</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42933</v>
+        <v>43097</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03946248110902073</v>
+        <v>0.03946248110902074</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03007624227190679</v>
+        <v>0.03044005717309069</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05108276723588749</v>
+        <v>0.05127793759505381</v>
       </c>
     </row>
     <row r="7">
@@ -5541,19 +5541,19 @@
         <v>9905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5720</v>
+        <v>5873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15551</v>
+        <v>16313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02457065814665858</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01418962999994046</v>
+        <v>0.0145684663542795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03857552588002171</v>
+        <v>0.04046405192958012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -5562,19 +5562,19 @@
         <v>16615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11417</v>
+        <v>11610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23315</v>
+        <v>23851</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03799271540098195</v>
+        <v>0.03799271540098196</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02610779395294173</v>
+        <v>0.02654711455253135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05331406594253519</v>
+        <v>0.05453921643112748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5583,19 +5583,19 @@
         <v>26520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19715</v>
+        <v>18932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35835</v>
+        <v>34706</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03155461293012002</v>
+        <v>0.03155461293012003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02345688600198793</v>
+        <v>0.02252605774268802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04263765598224575</v>
+        <v>0.04129384904974436</v>
       </c>
     </row>
     <row r="8">
@@ -5612,19 +5612,19 @@
         <v>4350</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1829</v>
+        <v>1557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8816</v>
+        <v>9240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0107900053035984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004535760338958976</v>
+        <v>0.003861793389718742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02186807942233745</v>
+        <v>0.02291984532350065</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -5633,19 +5633,19 @@
         <v>8015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4505</v>
+        <v>4632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13259</v>
+        <v>13060</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01832801450544246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01030117244703751</v>
+        <v>0.01059284896345511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03031817191404304</v>
+        <v>0.02986473143301599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -5654,19 +5654,19 @@
         <v>12365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7814</v>
+        <v>7439</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18890</v>
+        <v>18827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01471228893161955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009296997587196286</v>
+        <v>0.008851298400003328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02247611072875067</v>
+        <v>0.02240115267899559</v>
       </c>
     </row>
     <row r="9">
@@ -5758,19 +5758,19 @@
         <v>187700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172689</v>
+        <v>173861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201265</v>
+        <v>201671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6112683898336214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5623813703893386</v>
+        <v>0.566198649095778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6554433093975194</v>
+        <v>0.6567653124109435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>343</v>
@@ -5779,19 +5779,19 @@
         <v>179633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164448</v>
+        <v>165454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194536</v>
+        <v>195779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3897460295762922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3567992713876956</v>
+        <v>0.3589827127961448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4220794751974229</v>
+        <v>0.4247774061549432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>613</v>
@@ -5800,19 +5800,19 @@
         <v>367333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>345888</v>
+        <v>345215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388198</v>
+        <v>387870</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4783206203083279</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4503966409753901</v>
+        <v>0.449519990984057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5054900621597084</v>
+        <v>0.5050631813765597</v>
       </c>
     </row>
     <row r="11">
@@ -5829,19 +5829,19 @@
         <v>33950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25415</v>
+        <v>25257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43773</v>
+        <v>44053</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1105619189656106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08276664592884643</v>
+        <v>0.08225274966276847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1425518015227343</v>
+        <v>0.1434633727608087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>131</v>
@@ -5850,19 +5850,19 @@
         <v>69813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58217</v>
+        <v>58935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81305</v>
+        <v>80995</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1514722368579252</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1263119867937584</v>
+        <v>0.1278705413121671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1764063850522456</v>
+        <v>0.1757339916381145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>181</v>
@@ -5871,19 +5871,19 @@
         <v>103763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89926</v>
+        <v>89419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117734</v>
+        <v>119136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1351144540146045</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1170963867807768</v>
+        <v>0.1164358667427949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1533067195446408</v>
+        <v>0.1551324252179208</v>
       </c>
     </row>
     <row r="12">
@@ -5900,19 +5900,19 @@
         <v>21923</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15265</v>
+        <v>15334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29909</v>
+        <v>30312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07139394593471575</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04971109126179715</v>
+        <v>0.04993572622340969</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09740256908357366</v>
+        <v>0.09871393148188197</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>122</v>
@@ -5921,19 +5921,19 @@
         <v>66586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55710</v>
+        <v>56211</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79061</v>
+        <v>78279</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1444708463263862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.120871865371908</v>
+        <v>0.1219606090597656</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.171536942584407</v>
+        <v>0.1698403204925795</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -5942,19 +5942,19 @@
         <v>88509</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>76519</v>
+        <v>75594</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102064</v>
+        <v>101803</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1152514188309454</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09963923017637737</v>
+        <v>0.09843450936446953</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1329018162530604</v>
+        <v>0.1325620734562832</v>
       </c>
     </row>
     <row r="13">
@@ -5971,19 +5971,19 @@
         <v>42280</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32489</v>
+        <v>32927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52743</v>
+        <v>52929</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1376908212263563</v>
+        <v>0.1376908212263562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.105804743635764</v>
+        <v>0.1072321571161419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1717640579874702</v>
+        <v>0.1723708371752558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>153</v>
@@ -5992,19 +5992,19 @@
         <v>78700</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67069</v>
+        <v>67253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90805</v>
+        <v>93310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.170752787185292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.145518600135695</v>
+        <v>0.1459162475216369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1970168068706568</v>
+        <v>0.2024535219819765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -6013,19 +6013,19 @@
         <v>120980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104698</v>
+        <v>106781</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136472</v>
+        <v>138989</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1575331280041266</v>
+        <v>0.1575331280041267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1363318664109827</v>
+        <v>0.1390448618922036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1777066389726765</v>
+        <v>0.180983382356802</v>
       </c>
     </row>
     <row r="14">
@@ -6042,19 +6042,19 @@
         <v>21214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15580</v>
+        <v>14740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28603</v>
+        <v>29640</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06908492403969597</v>
+        <v>0.06908492403969596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05073786330768285</v>
+        <v>0.04800292191032465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09314764863879546</v>
+        <v>0.09652697679503464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -6063,19 +6063,19 @@
         <v>66166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55537</v>
+        <v>55146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78051</v>
+        <v>77933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1435581000541044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1204966996254199</v>
+        <v>0.1196487642159873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1693462835651826</v>
+        <v>0.1690899304022389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>161</v>
@@ -6084,19 +6084,19 @@
         <v>87379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74767</v>
+        <v>74536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101380</v>
+        <v>101322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1137803788419956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09735798037742051</v>
+        <v>0.09705602491243012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1320108069633512</v>
+        <v>0.1319361954139578</v>
       </c>
     </row>
     <row r="15">
@@ -6188,19 +6188,19 @@
         <v>534750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>515218</v>
+        <v>515699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>553754</v>
+        <v>553234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7529494312616993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7254472598106876</v>
+        <v>0.7261246903307806</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7797085139592973</v>
+        <v>0.7789760122730627</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1002</v>
@@ -6209,19 +6209,19 @@
         <v>527456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>505729</v>
+        <v>505411</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>549139</v>
+        <v>548558</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5872252012977758</v>
+        <v>0.5872252012977759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5630354803888477</v>
+        <v>0.5626814198717563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6113649498217802</v>
+        <v>0.6107178161819365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1752</v>
@@ -6230,19 +6230,19 @@
         <v>1062206</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1032170</v>
+        <v>1031311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1092559</v>
+        <v>1092888</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6604014387789392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6417273963040884</v>
+        <v>0.6411935791091388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6792731997337307</v>
+        <v>0.6794777820794682</v>
       </c>
     </row>
     <row r="17">
@@ -6259,19 +6259,19 @@
         <v>61919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51238</v>
+        <v>50131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76428</v>
+        <v>74307</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08718378336886368</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0721448935983682</v>
+        <v>0.07058701424371118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1076134581119297</v>
+        <v>0.1046271700991856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -6280,19 +6280,19 @@
         <v>115380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100747</v>
+        <v>101310</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129768</v>
+        <v>130345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1284542543160296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1121632222275099</v>
+        <v>0.1127900946361052</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.144472284193455</v>
+        <v>0.1451154244109912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>304</v>
@@ -6301,19 +6301,19 @@
         <v>177298</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160505</v>
+        <v>156609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198935</v>
+        <v>196591</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1102311026160839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09979047568069942</v>
+        <v>0.0973682410158459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1236829362359261</v>
+        <v>0.1222259758411281</v>
       </c>
     </row>
     <row r="18">
@@ -6330,19 +6330,19 @@
         <v>35789</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26726</v>
+        <v>26838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45228</v>
+        <v>45901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05039268023217657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03763074188192257</v>
+        <v>0.03778877034802305</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06368261164433457</v>
+        <v>0.06463047377180861</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>159</v>
@@ -6351,19 +6351,19 @@
         <v>85886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73906</v>
+        <v>73263</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97945</v>
+        <v>100055</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09561869093735671</v>
+        <v>0.09561869093735673</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08228090891333903</v>
+        <v>0.08156443611028978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1090436809163186</v>
+        <v>0.1113925295818966</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>218</v>
@@ -6372,19 +6372,19 @@
         <v>121676</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105822</v>
+        <v>105989</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>136990</v>
+        <v>138382</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07564895386023571</v>
+        <v>0.07564895386023569</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06579215797216749</v>
+        <v>0.06589635755898297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08517044272712412</v>
+        <v>0.08603555683962763</v>
       </c>
     </row>
     <row r="19">
@@ -6401,19 +6401,19 @@
         <v>52186</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40754</v>
+        <v>41954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64717</v>
+        <v>64642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07347956698491794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05738272297646534</v>
+        <v>0.05907256116039203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09112356814587894</v>
+        <v>0.09101873823875106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>182</v>
@@ -6422,19 +6422,19 @@
         <v>95315</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82819</v>
+        <v>83431</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110111</v>
+        <v>109681</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1061151881575513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09220404379348209</v>
+        <v>0.09288468813330027</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1225879752284954</v>
+        <v>0.1221091111673647</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>261</v>
@@ -6443,19 +6443,19 @@
         <v>147500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130493</v>
+        <v>129386</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167105</v>
+        <v>165543</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09170479104305711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08113101838478369</v>
+        <v>0.08044296428638967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1038937403591325</v>
+        <v>0.1029224832974626</v>
       </c>
     </row>
     <row r="20">
@@ -6472,19 +6472,19 @@
         <v>25564</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18229</v>
+        <v>18578</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34209</v>
+        <v>34347</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03599453815234254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02566696598628917</v>
+        <v>0.02615837904304467</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04816713577359755</v>
+        <v>0.04836244832045594</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -6493,19 +6493,19 @@
         <v>74181</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61317</v>
+        <v>61497</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87475</v>
+        <v>87247</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08258666529128655</v>
+        <v>0.08258666529128654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06826498206088867</v>
+        <v>0.06846593379045934</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09738775837956096</v>
+        <v>0.0971329753130748</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>181</v>
@@ -6514,19 +6514,19 @@
         <v>99744</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85860</v>
+        <v>86992</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116019</v>
+        <v>115846</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06201371370168424</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05338134841892835</v>
+        <v>0.05408502650959335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07213218670643061</v>
+        <v>0.07202452369147969</v>
       </c>
     </row>
     <row r="21">
